--- a/Подробный отчет.xlsx
+++ b/Подробный отчет.xlsx
@@ -35,7 +35,7 @@
       <sz val="16"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -46,6 +46,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="0000FF00"/>
         <bgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -90,11 +96,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>

--- a/Подробный отчет.xlsx
+++ b/Подробный отчет.xlsx
@@ -479,7 +479,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="36" customWidth="1" min="1" max="1"/>
-    <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="53" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
@@ -565,12 +565,9 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Укладка ламината
-2024-08-31</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="n">
-        <v>45535</v>
+          <t>
+</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -585,11 +582,8 @@
       <c r="H3" s="5" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>5</v>
+          <t>До дедлайна осталось 51 дней.</t>
+        </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -625,7 +619,7 @@
       <c r="H4" s="5" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -659,7 +653,7 @@
       <c r="H5" s="5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -676,9 +670,12 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>
-</t>
-        </is>
+          <t>Стены
+2024-09-24</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>45559</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -693,7 +690,7 @@
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -710,9 +707,12 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>
-</t>
-        </is>
+          <t>Стены
+2024-09-24</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>45559</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
       <c r="H7" s="5" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -744,9 +744,12 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>
-</t>
-        </is>
+          <t>Стены
+2024-09-24</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>45559</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -761,7 +764,7 @@
       <c r="H8" s="5" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -795,7 +798,7 @@
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -829,7 +832,7 @@
       <c r="H10" s="5" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -863,7 +866,7 @@
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -897,7 +900,7 @@
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -931,7 +934,7 @@
       <c r="H13" s="5" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -965,7 +968,7 @@
       <c r="H14" s="5" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -982,9 +985,12 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>
-</t>
-        </is>
+          <t>Установка дверей
+2024-09-24</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>45559</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -999,7 +1005,7 @@
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1033,7 +1039,7 @@
       <c r="H16" s="5" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1067,7 +1073,7 @@
       <c r="H17" s="5" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1101,7 +1107,7 @@
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1135,7 +1141,7 @@
       <c r="H19" s="5" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1169,7 +1175,7 @@
       <c r="H20" s="5" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1203,7 +1209,7 @@
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1237,7 +1243,7 @@
       <c r="H22" s="5" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1271,7 +1277,7 @@
       <c r="H23" s="5" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1305,7 +1311,7 @@
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1339,7 +1345,7 @@
       <c r="H25" s="5" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1373,7 +1379,7 @@
       <c r="H26" s="5" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1407,7 +1413,7 @@
       <c r="H27" s="5" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1441,7 +1447,7 @@
       <c r="H28" s="5" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1475,7 +1481,7 @@
       <c r="H29" s="5" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1509,7 +1515,7 @@
       <c r="H30" s="5" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -1543,7 +1549,7 @@
       <c r="H31" s="5" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -1577,7 +1583,7 @@
       <c r="H32" s="5" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -1611,7 +1617,7 @@
       <c r="H33" s="5" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -1645,7 +1651,7 @@
       <c r="H34" s="5" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -1679,7 +1685,7 @@
       <c r="H35" s="5" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -1713,7 +1719,7 @@
       <c r="H36" s="5" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -1747,7 +1753,7 @@
       <c r="H37" s="5" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -1781,7 +1787,7 @@
       <c r="H38" s="5" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -1815,7 +1821,7 @@
       <c r="H39" s="5" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -1849,7 +1855,7 @@
       <c r="H40" s="5" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -1883,7 +1889,7 @@
       <c r="H41" s="5" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -1917,7 +1923,7 @@
       <c r="H42" s="5" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -1951,7 +1957,7 @@
       <c r="H43" s="5" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -1985,7 +1991,7 @@
       <c r="H44" s="5" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2002,9 +2008,12 @@
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>
-</t>
-        </is>
+          <t>Черновая электрика и черновая сантехника
+2024-09-18</t>
+        </is>
+      </c>
+      <c r="C45" s="7" t="n">
+        <v>45553</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2019,7 +2028,7 @@
       <c r="H45" s="5" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2053,7 +2062,7 @@
       <c r="H46" s="5" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2087,7 +2096,7 @@
       <c r="H47" s="5" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2121,7 +2130,7 @@
       <c r="H48" s="5" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2155,7 +2164,7 @@
       <c r="H49" s="5" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -2189,7 +2198,7 @@
       <c r="H50" s="5" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2223,7 +2232,7 @@
       <c r="H51" s="5" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -2257,7 +2266,7 @@
       <c r="H52" s="5" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -2291,7 +2300,7 @@
       <c r="H53" s="5" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -2325,7 +2334,7 @@
       <c r="H54" s="5" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -2342,9 +2351,12 @@
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>
-</t>
-        </is>
+          <t>Установка дверей
+2024-09-24</t>
+        </is>
+      </c>
+      <c r="C55" s="7" t="n">
+        <v>45559</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2359,7 +2371,7 @@
       <c r="H55" s="5" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -2393,7 +2405,7 @@
       <c r="H56" s="5" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -2427,7 +2439,7 @@
       <c r="H57" s="5" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -2461,7 +2473,7 @@
       <c r="H58" s="5" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -2495,7 +2507,7 @@
       <c r="H59" s="5" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -2529,7 +2541,7 @@
       <c r="H60" s="5" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -2563,7 +2575,7 @@
       <c r="H61" s="5" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -2597,7 +2609,7 @@
       <c r="H62" s="5" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -2631,7 +2643,7 @@
       <c r="H63" s="5" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -2665,7 +2677,7 @@
       <c r="H64" s="5" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -2699,7 +2711,7 @@
       <c r="H65" s="5" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -2733,7 +2745,7 @@
       <c r="H66" s="5" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -2767,7 +2779,7 @@
       <c r="H67" s="5" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -2801,7 +2813,7 @@
       <c r="H68" s="5" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -2835,7 +2847,7 @@
       <c r="H69" s="5" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -2869,7 +2881,7 @@
       <c r="H70" s="5" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -2903,7 +2915,7 @@
       <c r="H71" s="5" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -2937,7 +2949,7 @@
       <c r="H72" s="5" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -2971,7 +2983,7 @@
       <c r="H73" s="5" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -3005,7 +3017,7 @@
       <c r="H74" s="5" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -3039,7 +3051,7 @@
       <c r="H75" s="5" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -3073,7 +3085,7 @@
       <c r="H76" s="5" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -3107,7 +3119,7 @@
       <c r="H77" s="5" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -3146,7 +3158,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -3180,7 +3192,7 @@
       <c r="H79" s="5" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -3214,7 +3226,7 @@
       <c r="H80" s="5" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -3248,7 +3260,7 @@
       <c r="H81" s="5" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -3282,7 +3294,7 @@
       <c r="H82" s="5" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -3316,7 +3328,7 @@
       <c r="H83" s="5" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -3350,7 +3362,7 @@
       <c r="H84" s="5" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -3384,7 +3396,7 @@
       <c r="H85" s="5" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -3418,7 +3430,7 @@
       <c r="H86" s="5" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -3452,7 +3464,7 @@
       <c r="H87" s="5" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -3486,7 +3498,7 @@
       <c r="H88" s="5" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -3520,7 +3532,7 @@
       <c r="H89" s="5" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -3554,7 +3566,7 @@
       <c r="H90" s="5" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -3588,7 +3600,7 @@
       <c r="H91" s="5" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -3622,7 +3634,7 @@
       <c r="H92" s="5" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -3656,7 +3668,7 @@
       <c r="H93" s="5" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -3690,7 +3702,7 @@
       <c r="H94" s="5" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -3724,7 +3736,7 @@
       <c r="H95" s="5" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -3758,7 +3770,7 @@
       <c r="H96" s="5" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -3792,7 +3804,7 @@
       <c r="H97" s="5" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -3826,7 +3838,7 @@
       <c r="H98" s="5" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -3860,7 +3872,7 @@
       <c r="H99" s="5" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -3894,7 +3906,7 @@
       <c r="H100" s="5" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -3928,7 +3940,7 @@
       <c r="H101" s="5" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -3965,7 +3977,7 @@
       <c r="H102" s="5" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -3999,7 +4011,7 @@
       <c r="H103" s="5" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -4033,7 +4045,7 @@
       <c r="H104" s="5" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -4067,7 +4079,7 @@
       <c r="H105" s="5" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -4101,7 +4113,7 @@
       <c r="H106" s="5" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -4135,7 +4147,7 @@
       <c r="H107" s="5" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -4169,7 +4181,7 @@
       <c r="H108" s="5" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -4203,7 +4215,7 @@
       <c r="H109" s="5" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -4237,7 +4249,7 @@
       <c r="H110" s="5" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -4271,7 +4283,7 @@
       <c r="H111" s="5" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -4305,7 +4317,7 @@
       <c r="H112" s="5" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -4339,7 +4351,7 @@
       <c r="H113" s="5" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -4373,7 +4385,7 @@
       <c r="H114" s="5" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -4410,7 +4422,7 @@
       <c r="H115" s="5" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -4444,7 +4456,7 @@
       <c r="H116" s="5" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -4478,7 +4490,7 @@
       <c r="H117" s="5" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -4512,7 +4524,7 @@
       <c r="H118" s="5" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -4546,7 +4558,7 @@
       <c r="H119" s="5" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -4580,7 +4592,7 @@
       <c r="H120" s="5" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -4614,7 +4626,7 @@
       <c r="H121" s="5" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -4648,7 +4660,7 @@
       <c r="H122" s="5" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -4682,7 +4694,7 @@
       <c r="H123" s="5" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -4716,7 +4728,7 @@
       <c r="H124" s="5" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -4750,7 +4762,7 @@
       <c r="H125" s="5" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -4784,7 +4796,7 @@
       <c r="H126" s="5" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -4818,7 +4830,7 @@
       <c r="H127" s="5" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -4852,7 +4864,7 @@
       <c r="H128" s="5" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -4886,7 +4898,7 @@
       <c r="H129" s="5" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -4920,7 +4932,7 @@
       <c r="H130" s="5" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -4954,7 +4966,7 @@
       <c r="H131" s="5" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -4988,7 +5000,7 @@
       <c r="H132" s="5" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -5022,7 +5034,7 @@
       <c r="H133" s="5" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -5056,7 +5068,7 @@
       <c r="H134" s="5" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -5090,7 +5102,7 @@
       <c r="H135" s="5" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -5124,7 +5136,7 @@
       <c r="H136" s="5" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -5158,7 +5170,7 @@
       <c r="H137" s="5" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -5192,7 +5204,7 @@
       <c r="H138" s="5" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -5226,7 +5238,7 @@
       <c r="H139" s="5" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -5260,7 +5272,7 @@
       <c r="H140" s="5" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -5294,7 +5306,7 @@
       <c r="H141" s="5" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -5328,7 +5340,7 @@
       <c r="H142" s="5" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -5362,7 +5374,7 @@
       <c r="H143" s="5" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -5396,7 +5408,7 @@
       <c r="H144" s="5" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -5430,7 +5442,7 @@
       <c r="H145" s="5" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 75 дней.</t>
+          <t>До дедлайна осталось 51 дней.</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
